--- a/OCR Testing.xlsx
+++ b/OCR Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azt12\OneDrive\Documents\Wrestling Robe\Programming-Code Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E908D64-208A-428F-9DAB-7EAFC6FB89D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6866FC-9901-411C-9925-0C905DF79C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" firstSheet="1" activeTab="2" xr2:uid="{F894C0CC-E94F-461F-885B-D6630468FA4A}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" activeTab="1" xr2:uid="{F894C0CC-E94F-461F-885B-D6630468FA4A}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="14">
   <si>
     <t>Page</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>1 to many?</t>
+  </si>
+  <si>
+    <t>1 but discard</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F27"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,11 +820,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDE09E9-BC00-4074-8F00-2DDEC5AFC93B}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
@@ -944,14 +950,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="6">
         <v>1</v>
       </c>
@@ -1168,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE1D525-0F18-4FBD-9CDA-7255E1C8F562}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,8 +1234,8 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
+      <c r="B5" s="6">
+        <v>1</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -1248,12 +1250,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
